--- a/Listas de precios/minorista/PARKER.xlsx
+++ b/Listas de precios/minorista/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/PARKER.xlsx
+++ b/Listas de precios/minorista/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/PARKER.xlsx
+++ b/Listas de precios/minorista/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/PARKER.xlsx
+++ b/Listas de precios/minorista/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C80" s="18" t="n"/>
       <c r="D80" s="7" t="n">
-        <v>5675.54</v>
+        <v>4043.966</v>
       </c>
     </row>
     <row r="82" ht="23.25" customHeight="1" s="20">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C96" s="18" t="n"/>
       <c r="D96" s="7" t="n">
-        <v>10597.23</v>
+        <v>7550.794</v>
       </c>
     </row>
     <row r="98" ht="23.25" customHeight="1" s="20">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C110" s="18" t="n"/>
       <c r="D110" s="8" t="n">
-        <v>10915.22</v>
+        <v>7777.371</v>
       </c>
     </row>
     <row r="112" ht="23.25" customHeight="1" s="20">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C124" s="18" t="n"/>
       <c r="D124" s="8" t="n">
-        <v>14623.29</v>
+        <v>10419.458</v>
       </c>
     </row>
     <row r="127" ht="20.25" customHeight="1" s="20">
